--- a/biology/Botanique/Bdellium/Bdellium.xlsx
+++ b/biology/Botanique/Bdellium/Bdellium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bdellium (du grec bdellion / en hébreu bedolach) est une gomme-résine que l'on faisait venir des Indes orientales, d'Afrique et d'Arabie par les routes commerciales du Levant.
 Les botanistes ont longtemps débattu sur la nature de l'arbre qui le produit. Ces derniers sont convenus (notamment Jean-Baptiste de Lamarck) que c'est un balsamier de la famille des Térébinthacées. 
@@ -516,7 +528,9 @@
           <t>Ancienne matière médicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancienne matière médicale, il était très apprécié par les Anciens qui l'utilisaient comme excitant résolutif[Quoi ?] à l'intérieur et l'extérieur, dans le soin des catarrhes chroniques de la poitrine, de l'intestin et de la vessie.
 À ce sujet, il est cité par Dioscoride et Pline. Celse l'employait dans un cataplasme hémostatique (L.V, chap. XVIII, § 22). 
@@ -552,7 +566,9 @@
           <t>Les traces historiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce produit est évoqué deux fois dans la Bible : (Genèse 2:11 et 12) "Le nom du premier est Pischon; il entoure tout le pays de Havilah, où il y a de l'or (un or de qualité) ainsi que du bdellium et de la pierre d'onyx" ; (Nombres 11:7) "La manne était comme de la graine de coriandre et ressemblait au bdellium". 
 Voltaire évoque le bdellium dans son dictionnaire Philosophique (article "Bdellium") en ces termes : « On s’est fort tourmenté pour savoir ce que c’est que ce bdellium qu’on trouvait au bord du Phison, fleuve du paradis terrestre, qui tourne dans le pays d’Hévilath où il vient de l’or. »
